--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-625622.2413728379</v>
+        <v>-627509.82288924</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>165.4468773440099</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>51.96963438906868</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5159980612134</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>38.9611585419612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>114.6156019338791</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>183.6423933484831</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>213.8524658611804</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>51.33585661328315</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14.1243889063375</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>142.3766723716363</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>189.596843649344</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.635435058618</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>284.3969895868255</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>106.0393991380567</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>173.2064594147028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>225.1809026611654</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>124.3723876437016</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>148.417764999155</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51.17810882694638</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>106.8698659703788</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.6009285632891</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571504</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>73.89260596531338</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692779</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4147,10 +4147,10 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1941.051881282062</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1941.051881282062</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1941.051881282062</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.91254930625</v>
+        <v>1108.378893121371</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761946</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="C4" t="n">
-        <v>530.8077940618376</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>93.29768741830506</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>93.29768741830506</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>93.29768741830506</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>93.29768741830506</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>93.29768741830506</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>93.29768741830506</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>243.4143268306408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1152.132006003442</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C5" t="n">
-        <v>1152.132006003442</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.132006003442</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.132006003442</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>741.1461012138345</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>323.1822931120214</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1750.649563608243</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>1377.183805347164</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.731846067564</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2645.294690398744</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2469.117202712915</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2250.482535684977</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>1996.720750323069</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>1996.720750323069</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>1996.720750323069</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.720750323069</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243.4143268306406</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>243.4143268306406</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>243.4143268306406</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>243.4143268306406</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,19 +5124,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="W13" t="n">
-        <v>667.8334571142351</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185178</v>
+        <v>260.2520934878791</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>558.5754693487576</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.5754693487576</v>
+        <v>441.9005583181188</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5671,10 +5671,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1012.965137424469</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>1012.965137424469</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>784.9755865264517</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,37 +5762,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5835,16 +5835,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.5481934947359</v>
+        <v>372.9624052601989</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947359</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1348.999336215322</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1059.87069742888</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>805.1862092229929</v>
+        <v>844.0280401273992</v>
       </c>
       <c r="W22" t="n">
-        <v>805.1862092229929</v>
+        <v>554.6108700904387</v>
       </c>
       <c r="X22" t="n">
-        <v>577.1966583249756</v>
+        <v>554.6108700904387</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1966583249756</v>
+        <v>554.6108700904387</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>465.0005661440163</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>465.0005661440163</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>465.0005661440163</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>317.0874725616231</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>317.0874725616231</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>148.9121508814438</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>148.9121508814438</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>874.6385818722733</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>646.649030974256</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>646.649030974256</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6218,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.2830904386608</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>355.2830904386609</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>205.1664510263251</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557903</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347409</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104481</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124307</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>536.9315552689005</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163767</v>
+        <v>564.3668169895382</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698405</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388755</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264623</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1861.487067131515</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1693.462517202391</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1460.094743697319</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1261.171120772803</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>1027.514816017213</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652456</v>
+        <v>855.2861304005667</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652456</v>
+        <v>690.2544165384072</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,31 +6713,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010319</v>
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,16 +7160,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,22 +7181,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,10 +7412,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>5.328917345174801</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,13 +23470,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>2.126008749765504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>5.842169091310552</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>119.6702562509804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>78.9311839091252</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>61.34209567542555</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>42.87443345492626</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>73.12979605923424</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>59.2411366373256</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>39.56409667619035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>54.62977745472304</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>68.82494738973294</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688543</v>
       </c>
       <c r="F2" t="n">
         <v>195514.5298688544</v>
@@ -26329,16 +26329,16 @@
         <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="J2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
-        <v>203411.0686726353</v>
+        <v>203411.0686726352</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007501</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020393</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732798</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26497,13 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-615483.563527804</v>
       </c>
       <c r="C6" t="n">
-        <v>-25515.68431325947</v>
+        <v>-25515.68431325949</v>
       </c>
       <c r="D6" t="n">
-        <v>-25515.68431325947</v>
+        <v>-25515.68431325945</v>
       </c>
       <c r="E6" t="n">
-        <v>-429549.5642127658</v>
+        <v>-429647.0233387381</v>
       </c>
       <c r="F6" t="n">
-        <v>95610.47226413022</v>
+        <v>95513.0131381581</v>
       </c>
       <c r="G6" t="n">
-        <v>95610.47226413028</v>
+        <v>95513.01313815813</v>
       </c>
       <c r="H6" t="n">
-        <v>95610.47226413034</v>
+        <v>95513.01313815806</v>
       </c>
       <c r="I6" t="n">
-        <v>95610.47226413034</v>
+        <v>95513.01313815812</v>
       </c>
       <c r="J6" t="n">
-        <v>-80812.74692846269</v>
+        <v>-80910.20605443486</v>
       </c>
       <c r="K6" t="n">
-        <v>36538.90066936289</v>
+        <v>36520.40693142859</v>
       </c>
       <c r="L6" t="n">
-        <v>66866.91094785089</v>
+        <v>66866.91094785079</v>
       </c>
       <c r="M6" t="n">
-        <v>-57591.19748511937</v>
+        <v>-57591.19748511939</v>
       </c>
       <c r="N6" t="n">
-        <v>77209.81774871775</v>
+        <v>77209.81774871773</v>
       </c>
       <c r="O6" t="n">
         <v>77209.81774871772</v>
       </c>
       <c r="P6" t="n">
-        <v>33047.21244587214</v>
+        <v>33047.21244587222</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26747,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108371</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>217.2869643194707</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>275.7826240810662</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>151.7308230374144</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>6.238800646575797</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>209.307170830478</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>165.5985753689299</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>11.1826395969039</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.80115265030472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.142545961528562</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>335.1165798110755</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>6.238800646576038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724702</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286126</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412247</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.4289566004317</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
